--- a/xls_data/2016-4.xlsx
+++ b/xls_data/2016-4.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="VRKT" sheetId="1" r:id="rId1"/>
-    <sheet name="TSRT" sheetId="2" r:id="rId2"/>
-    <sheet name="KZBG" sheetId="3" r:id="rId3"/>
-    <sheet name="AGMS" sheetId="4" r:id="rId4"/>
-    <sheet name="TBL01" sheetId="5" r:id="rId5"/>
+    <sheet name="KZBG" sheetId="2" r:id="rId2"/>
+    <sheet name="AGMS" sheetId="3" r:id="rId3"/>
+    <sheet name="TBL01" sheetId="4" r:id="rId4"/>
+    <sheet name="TSRT" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>ნივთიერება</t>
   </si>
@@ -78,6 +78,96 @@
   </si>
   <si>
     <t>CO</t>
+  </si>
+  <si>
+    <t>15.90</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>62.58</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>26.92</t>
+  </si>
+  <si>
+    <t>33.05</t>
+  </si>
+  <si>
+    <t>7.38</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>241.92</t>
+  </si>
+  <si>
+    <t>243.42</t>
+  </si>
+  <si>
+    <t>385.36</t>
+  </si>
+  <si>
+    <t>32.58</t>
+  </si>
+  <si>
+    <t>50.62</t>
+  </si>
+  <si>
+    <t>110.21</t>
+  </si>
+  <si>
+    <t>141.43</t>
+  </si>
+  <si>
+    <t>129.32</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>48.17</t>
+  </si>
+  <si>
+    <t>104.12</t>
+  </si>
+  <si>
+    <t>127.04</t>
+  </si>
+  <si>
+    <t>115.67</t>
+  </si>
+  <si>
+    <t>93.50</t>
+  </si>
+  <si>
+    <t>49.83</t>
+  </si>
+  <si>
+    <t>107.13</t>
+  </si>
+  <si>
+    <t>121.81</t>
+  </si>
+  <si>
+    <t>118.97</t>
+  </si>
+  <si>
+    <t>93.62</t>
+  </si>
+  <si>
+    <t>0.07</t>
   </si>
 </sst>
 </file>
@@ -412,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -442,6 +532,52 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +704,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -600,6 +736,98 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
